--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_69.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_69.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,67 +488,64 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1846153846153846</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_161</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_104</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:min', 'C:min', 'G:min']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(23.42, 33.96)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(51.28, 62.78)]</t>
+          <t>[('0:00:01.600000', '0:00:41.420000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:00.240000', '0:00:35.100000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_93</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>schubert-winterreise_184</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_26</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
         <v>0.1348837209302326</v>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:min', 'A#:min']]</t>
-        </is>
-      </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>[['D:7', 'G:min', 'G:min']]</t>
@@ -551,155 +553,167 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(16.26, 21.14)]</t>
+          <t>[['C:7', 'F:min/C', 'F:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(7.9, 17.86)]</t>
+          <t>[('0:00:11.620000', '0:00:15.600000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
+          <t>[('0:00:36.280000', '0:00:38')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
           <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_43</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['D#:min', 'A#:7', 'D#:min']]</t>
-        </is>
+          <t>schubert-winterreise_196</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_214</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(8.26, 12.96)]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(41.32, 48.94)]</t>
+          <t>[('0:00:00.860000', '0:00:25.020000'), ('0:01:01.240000', '0:01:24.100000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:00.620000', '0:00:26.600000'), ('0:01:10.160000', '0:01:36.100000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2697674418604651</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
+          <t>isophonics_92</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_203</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.09807692307692308</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
+          <t>[['E:7', 'A', 'A']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(43.12, 59.64)]</t>
+          <t>[['D:7', 'G:maj', 'G:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(9.9, 34.68)]</t>
+          <t>[('0:00:24.631133', '0:00:29.751133')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:07.460000', '0:00:13.640000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:7HTH1ppjkkOe7RLoBDKXYJ</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_162</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2687747035573123</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#']]</t>
-        </is>
+          <t>isophonics_255</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_142</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1136044880785414</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'G:maj/B', 'D:7']]</t>
+          <t>[['D:min', 'G:min/5', 'D:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(10.2, 18.84)]</t>
+          <t>[['F:min', 'A#:min/F', 'F:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(20.08, 23.2)]</t>
+          <t>[('0:00:27.789047', '0:00:31.109501')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:00:00.700000', '0:00:03.780000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
         <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
@@ -708,497 +722,450 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'F#:maj', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_88</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_31</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5050505050505051</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(74.1, 80.04), (12.14, 20.02)]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(7.7, 12.06), (0.34, 4.84)]</t>
+          <t>[('0:00:16.040000', '0:00:21')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:07.900000', '0:00:20.520000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1846153846153846</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['F:7/A#', 'A#:min', 'D#:min/A#', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_6</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_185</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(23.04, 32.8)]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(44.2, 54.16)]</t>
+          <t>[('0:00:01.900000', '0:01:41.900000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
+          <t>[('0:00:00.820000', '0:01:47.920000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
           <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_162</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_14</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.171875</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D', 'A']]</t>
-        </is>
+          <t>isophonics_242</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_139</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.1306715063520871</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['C:7', 'F', 'C/3']]</t>
+          <t>[['A', 'B', 'E']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(43.926916, 50.765192)]</t>
+          <t>[['C', 'D', 'G']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(12.503707, 19.759943)]</t>
+          <t>[('0:00:44.310045', '0:00:50.196303')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
+          <t>[('0:00:51.853310', '0:00:57.054580')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:0pNeVovbiZHkulpGeOx1Gj</t>
+          <t>spotify:track:5SUlhldQJtOhUr2GzH5RI7</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:25yQPHgC35WNnnOUqFhgVR</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_137</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2697674418604651</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_153</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_172</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4017857142857143</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(11.5, 37.58)]</t>
+          <t>[['E:maj', 'B:7', 'E:maj'], ['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(41.78, 56.28)]</t>
+          <t>[('0:01:00.120000', '0:01:01.360000'), ('0:00:58.400000', '0:01:00.680000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:00.260000', '0:00:07.340000'), ('0:00:52.740000', '0:01:00.860000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_47</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_165</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_146</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_255</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.08684863523573201</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:min', 'A#:min'], ['C#:maj/G#', 'G#:7', 'C#:maj']]</t>
+          <t>[['B:min', 'E:min/B', 'B:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(10.76, 23.6), (62.86, 68.74)]</t>
+          <t>[['D:min', 'G:min/5', 'D:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(12.38, 16.42), (29.5, 31.64)]</t>
+          <t>[('0:00:27.460000', '0:00:36.020000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:27.789047', '0:00:31.109501')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_64</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.05796064400715564</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_16</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_68</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.4761904761904762</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(46.52, 48.94)]</t>
+          <t>[['D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(0.82, 6.76)]</t>
+          <t>[('0:01:08.340000', '0:01:20')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:04.340000', '0:00:17.660000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_109</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.05796064400715564</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>isophonics_232</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>isophonics_174</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.3703703703703703</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['C', 'F', 'C', 'F', 'C', 'F', 'G', 'A']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(40.82, 43.62)]</t>
+          <t>[['D', 'G', 'D', 'G', 'D', 'G', 'A', 'D']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(1.54, 6.88)]</t>
+          <t>[('0:00:16.179070', '0:00:34.801473')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:37.331000', '0:00:49.319000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_7</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_165</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
+          <t>schubert-winterreise_182</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_83</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
         <v>1</v>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
-        </is>
-      </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A:dim7', 'A#:min', 'A:dim7', 'F:maj/C', 'A#:min/C#', 'G#:maj/C', 'F#:maj/A#', 'C#:maj/G#', 'F#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:maj/A#', 'F:min/C', 'C:7', 'F:min', 'E:dim7/G', 'F:min/G#', 'F:(3,5,b7,b9)/A', 'A#:min', 'A#:(3,5,b7,b9)', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A:dim7', 'C:hdim7/D#', 'A:dim7', 'C:hdim7/D#', 'F:(3,5,b7,b9)', 'A#:min', 'A#:(3,5,b7,b9)/D', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A#:min']]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(11.94, 67.8)]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(9.7, 62.32)]</t>
+          <t>[('0:01:22.240000', '0:01:29.660000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:01:10.340000', '0:01:17.220000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.05796064400715564</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_151</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.4875</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(46.52, 48.94)]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(1.44, 6.84)]</t>
+          <t>[('0:00:54.180000', '0:01:01.460000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:01:57.540000', '0:02:01.800000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_54</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_210</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(13.72, 22.2)]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(46.22, 48.94)]</t>
+          <t>[('0:00:09.240000', '0:01:48.600000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_176</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_185</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.07334525939177103</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(30.02, 32.12)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(39.8, 45.4)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:07.140000', '0:01:47.600000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
